--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H2">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I2">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J2">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>3174.313021346921</v>
+        <v>3056.342193085078</v>
       </c>
       <c r="R2">
-        <v>28568.81719212229</v>
+        <v>27507.0797377657</v>
       </c>
       <c r="S2">
-        <v>0.03593106121300602</v>
+        <v>0.03572706489743428</v>
       </c>
       <c r="T2">
-        <v>0.03593106121300602</v>
+        <v>0.03572706489743428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H3">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I3">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J3">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>3345.843512042643</v>
+        <v>3306.908620689042</v>
       </c>
       <c r="R3">
-        <v>30112.59160838379</v>
+        <v>29762.17758620138</v>
       </c>
       <c r="S3">
-        <v>0.03787266952940002</v>
+        <v>0.03865605728591056</v>
       </c>
       <c r="T3">
-        <v>0.03787266952940001</v>
+        <v>0.03865605728591057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H4">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I4">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J4">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>2161.713029432722</v>
+        <v>1425.564949968121</v>
       </c>
       <c r="R4">
-        <v>19455.4172648945</v>
+        <v>12830.08454971309</v>
       </c>
       <c r="S4">
-        <v>0.02446911903872097</v>
+        <v>0.01666411948185965</v>
       </c>
       <c r="T4">
-        <v>0.02446911903872097</v>
+        <v>0.01666411948185966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H5">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I5">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J5">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>1158.226546240903</v>
+        <v>1119.456851279399</v>
       </c>
       <c r="R5">
-        <v>10424.03891616813</v>
+        <v>10075.11166151459</v>
       </c>
       <c r="S5">
-        <v>0.0131103355754915</v>
+        <v>0.01308587358641462</v>
       </c>
       <c r="T5">
-        <v>0.0131103355754915</v>
+        <v>0.01308587358641462</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H6">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I6">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J6">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>1686.082146452064</v>
+        <v>1336.615506976976</v>
       </c>
       <c r="R6">
-        <v>15174.73931806858</v>
+        <v>12029.53956279278</v>
       </c>
       <c r="S6">
-        <v>0.019085301420154</v>
+        <v>0.01562434634077447</v>
       </c>
       <c r="T6">
-        <v>0.01908530142015399</v>
+        <v>0.01562434634077447</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I7">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J7">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>3938.705781708995</v>
+        <v>3836.977012854546</v>
       </c>
       <c r="R7">
-        <v>35448.35203538095</v>
+        <v>34532.79311569091</v>
       </c>
       <c r="S7">
-        <v>0.04458346659289329</v>
+        <v>0.04485228357556557</v>
       </c>
       <c r="T7">
-        <v>0.04458346659289329</v>
+        <v>0.04485228357556557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I8">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J8">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>4151.541797218249</v>
@@ -948,10 +948,10 @@
         <v>37363.87617496424</v>
       </c>
       <c r="S8">
-        <v>0.04699262531484893</v>
+        <v>0.04852938376769598</v>
       </c>
       <c r="T8">
-        <v>0.04699262531484893</v>
+        <v>0.04852938376769599</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I9">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J9">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>2682.265910817305</v>
+        <v>1789.675238503818</v>
       </c>
       <c r="R9">
-        <v>24140.39319735574</v>
+        <v>16107.07714653437</v>
       </c>
       <c r="S9">
-        <v>0.03036142308052578</v>
+        <v>0.02092038108037114</v>
       </c>
       <c r="T9">
-        <v>0.03036142308052578</v>
+        <v>0.02092038108037114</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I10">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J10">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>1437.134133757288</v>
+        <v>1405.382622063621</v>
       </c>
       <c r="R10">
-        <v>12934.20720381559</v>
+        <v>12648.44359857259</v>
       </c>
       <c r="S10">
-        <v>0.01626737948780571</v>
+        <v>0.01642819847129456</v>
       </c>
       <c r="T10">
-        <v>0.01626737948780571</v>
+        <v>0.01642819847129457</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I11">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J11">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>2092.100386448077</v>
+        <v>1678.006797438739</v>
       </c>
       <c r="R11">
-        <v>18828.90347803269</v>
+        <v>15102.06117694865</v>
       </c>
       <c r="S11">
-        <v>0.02368115133690337</v>
+        <v>0.01961503456192376</v>
       </c>
       <c r="T11">
-        <v>0.02368115133690337</v>
+        <v>0.01961503456192377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H12">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I12">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J12">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>7137.92228827019</v>
+        <v>9783.015776828428</v>
       </c>
       <c r="R12">
-        <v>64241.3005944317</v>
+        <v>88047.14199145584</v>
       </c>
       <c r="S12">
-        <v>0.08079641829547415</v>
+        <v>0.1143584119416184</v>
       </c>
       <c r="T12">
-        <v>0.08079641829547414</v>
+        <v>0.1143584119416184</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H13">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I13">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J13">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>7523.634505188037</v>
+        <v>10585.05139965205</v>
       </c>
       <c r="R13">
-        <v>67712.71054669234</v>
+        <v>95265.46259686848</v>
       </c>
       <c r="S13">
-        <v>0.0851624178624604</v>
+        <v>0.1237337949767719</v>
       </c>
       <c r="T13">
-        <v>0.08516241786246039</v>
+        <v>0.1237337949767719</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H14">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I14">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J14">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>4860.938259669363</v>
+        <v>4563.076879279118</v>
       </c>
       <c r="R14">
-        <v>43748.44433702427</v>
+        <v>41067.69191351206</v>
       </c>
       <c r="S14">
-        <v>0.05502251006320475</v>
+        <v>0.05334001675821149</v>
       </c>
       <c r="T14">
-        <v>0.05502251006320475</v>
+        <v>0.05334001675821151</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H15">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I15">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J15">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>2604.447331968276</v>
+        <v>3583.258465731682</v>
       </c>
       <c r="R15">
-        <v>23440.02598771449</v>
+        <v>32249.32619158513</v>
       </c>
       <c r="S15">
-        <v>0.02948056977421034</v>
+        <v>0.04188644453461987</v>
       </c>
       <c r="T15">
-        <v>0.02948056977421034</v>
+        <v>0.04188644453461988</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H16">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I16">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J16">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>3791.410378270729</v>
+        <v>4278.35947882204</v>
       </c>
       <c r="R16">
-        <v>34122.69340443656</v>
+        <v>38505.23530939836</v>
       </c>
       <c r="S16">
-        <v>0.04291618295648335</v>
+        <v>0.05001181709962187</v>
       </c>
       <c r="T16">
-        <v>0.04291618295648334</v>
+        <v>0.05001181709962189</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H17">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I17">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J17">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>1155.783260210093</v>
+        <v>1131.667927719588</v>
       </c>
       <c r="R17">
-        <v>10402.04934189083</v>
+        <v>10185.01134947629</v>
       </c>
       <c r="S17">
-        <v>0.0130826792418711</v>
+        <v>0.01322861477600823</v>
       </c>
       <c r="T17">
-        <v>0.0130826792418711</v>
+        <v>0.01322861477600823</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H18">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I18">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J18">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>1218.238370474428</v>
+        <v>1224.444839455526</v>
       </c>
       <c r="R18">
-        <v>10964.14533426985</v>
+        <v>11020.00355509973</v>
       </c>
       <c r="S18">
-        <v>0.01378962854866022</v>
+        <v>0.01431312905391623</v>
       </c>
       <c r="T18">
-        <v>0.01378962854866022</v>
+        <v>0.01431312905391623</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H19">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I19">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J19">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>787.0905345485551</v>
+        <v>527.8421167662731</v>
       </c>
       <c r="R19">
-        <v>7083.814810936996</v>
+        <v>4750.579050896458</v>
       </c>
       <c r="S19">
-        <v>0.008909328723051264</v>
+        <v>0.006170202277733884</v>
       </c>
       <c r="T19">
-        <v>0.008909328723051264</v>
+        <v>0.006170202277733885</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H20">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I20">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J20">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>421.7160830308311</v>
+        <v>414.4998612802868</v>
       </c>
       <c r="R20">
-        <v>3795.44474727748</v>
+        <v>3730.498751522582</v>
       </c>
       <c r="S20">
-        <v>0.004773538807291393</v>
+        <v>0.004845289731445359</v>
       </c>
       <c r="T20">
-        <v>0.004773538807291393</v>
+        <v>0.00484528973144536</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H21">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I21">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J21">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>613.9109492678538</v>
+        <v>494.9069198994613</v>
       </c>
       <c r="R21">
-        <v>5525.198543410684</v>
+        <v>4454.162279095152</v>
       </c>
       <c r="S21">
-        <v>0.006949053779238843</v>
+        <v>0.00578520680224931</v>
       </c>
       <c r="T21">
-        <v>0.006949053779238841</v>
+        <v>0.005785206802249311</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H22">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I22">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J22">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>8923.388611129425</v>
+        <v>7713.097423850124</v>
       </c>
       <c r="R22">
-        <v>80310.49750016483</v>
+        <v>69417.87681465111</v>
       </c>
       <c r="S22">
-        <v>0.1010066808968588</v>
+        <v>0.09016213329959934</v>
       </c>
       <c r="T22">
-        <v>0.1010066808968588</v>
+        <v>0.09016213329959934</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H23">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I23">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J23">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>9405.582149335109</v>
+        <v>8345.436064342683</v>
       </c>
       <c r="R23">
-        <v>84650.23934401596</v>
+        <v>75108.92457908414</v>
       </c>
       <c r="S23">
-        <v>0.1064647833024094</v>
+        <v>0.09755384607873321</v>
       </c>
       <c r="T23">
-        <v>0.1064647833024094</v>
+        <v>0.09755384607873321</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H24">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I24">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J24">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>6076.844122696196</v>
+        <v>3597.608071506954</v>
       </c>
       <c r="R24">
-        <v>54691.59710426576</v>
+        <v>32378.47264356259</v>
       </c>
       <c r="S24">
-        <v>0.06878573621634955</v>
+        <v>0.04205418402987197</v>
       </c>
       <c r="T24">
-        <v>0.06878573621634955</v>
+        <v>0.04205418402987197</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H25">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I25">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J25">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>3255.918840495566</v>
+        <v>2825.102429711526</v>
       </c>
       <c r="R25">
-        <v>29303.26956446009</v>
+        <v>25425.92186740373</v>
       </c>
       <c r="S25">
-        <v>0.03685478349982803</v>
+        <v>0.03302399125221033</v>
       </c>
       <c r="T25">
-        <v>0.03685478349982802</v>
+        <v>0.03302399125221034</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H26">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I26">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J26">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>4739.786568589536</v>
+        <v>3373.131989888825</v>
       </c>
       <c r="R26">
-        <v>42658.07911730582</v>
+        <v>30358.18790899942</v>
       </c>
       <c r="S26">
-        <v>0.05365115544285879</v>
+        <v>0.03943017433814389</v>
       </c>
       <c r="T26">
-        <v>0.05365115544285878</v>
+        <v>0.0394301743381439</v>
       </c>
     </row>
   </sheetData>
